--- a/dtpu_configurations/only_integer8/80mhz/mxu_20x20/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/80mhz/mxu_20x20/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>45.49248123168945</v>
+        <v>57.05263137817383</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>6.816092014312744</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>25.75469970703125</v>
+        <v>33.78947448730469</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>100.0</v>
